--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +516,123 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.050782</v>
+      </c>
+      <c r="H2">
+        <v>0.152346</v>
+      </c>
+      <c r="I2">
+        <v>0.02036584351830488</v>
+      </c>
+      <c r="J2">
+        <v>0.02036584351830488</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2.652639666666667</v>
+      </c>
+      <c r="N2">
+        <v>7.957919</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0.1347063475526667</v>
+      </c>
+      <c r="R2">
+        <v>1.212357127974</v>
+      </c>
+      <c r="S2">
+        <v>0.02036584351830488</v>
+      </c>
+      <c r="T2">
+        <v>0.02036584351830488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2.42338745248953</v>
-      </c>
-      <c r="H2">
-        <v>2.42338745248953</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2.59788271464561</v>
-      </c>
-      <c r="N2">
-        <v>2.59788271464561</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>6.295676373711609</v>
-      </c>
-      <c r="R2">
-        <v>6.295676373711609</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.442706666666667</v>
+      </c>
+      <c r="H3">
+        <v>7.32812</v>
+      </c>
+      <c r="I3">
+        <v>0.9796341564816952</v>
+      </c>
+      <c r="J3">
+        <v>0.9796341564816952</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2.652639666666667</v>
+      </c>
+      <c r="N3">
+        <v>7.957919</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>6.479620598031111</v>
+      </c>
+      <c r="R3">
+        <v>58.31658538228</v>
+      </c>
+      <c r="S3">
+        <v>0.9796341564816952</v>
+      </c>
+      <c r="T3">
+        <v>0.9796341564816952</v>
       </c>
     </row>
   </sheetData>
